--- a/Records/exp1/exp1.xlsx
+++ b/Records/exp1/exp1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianfeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianfeng/git/SPL/Records/exp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="8260" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20960" windowHeight="19720" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
   <si>
     <t>IBEA</t>
   </si>
@@ -76,6 +77,15 @@
   <si>
     <t>eis</t>
   </si>
+  <si>
+    <t>hv</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>igd</t>
+  </si>
 </sst>
 </file>
 
@@ -110,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,11 +802,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2107040928"/>
-        <c:axId val="-2110703232"/>
+        <c:axId val="-2109500416"/>
+        <c:axId val="-2109497152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107040928"/>
+        <c:axId val="-2109500416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110703232"/>
+        <c:crossAx val="-2109497152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110703232"/>
+        <c:axId val="-2109497152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107040928"/>
+        <c:crossAx val="-2109500416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,11 +1650,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2109175472"/>
-        <c:axId val="-2113022976"/>
+        <c:axId val="-2110008512"/>
+        <c:axId val="-2110005248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2109175472"/>
+        <c:axId val="-2110008512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113022976"/>
+        <c:crossAx val="-2110005248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1691,7 +1704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113022976"/>
+        <c:axId val="-2110005248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109175472"/>
+        <c:crossAx val="-2110008512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2485,11 +2498,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2107813472"/>
-        <c:axId val="-2107812064"/>
+        <c:axId val="-2109935840"/>
+        <c:axId val="-2109932576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107813472"/>
+        <c:axId val="-2109935840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107812064"/>
+        <c:crossAx val="-2109932576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2539,7 +2552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107812064"/>
+        <c:axId val="-2109932576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107813472"/>
+        <c:crossAx val="-2109935840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3338,11 +3351,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2101236176"/>
-        <c:axId val="-2110895872"/>
+        <c:axId val="-2112589456"/>
+        <c:axId val="-2112586192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101236176"/>
+        <c:axId val="-2112589456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110895872"/>
+        <c:crossAx val="-2112586192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3393,7 +3406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110895872"/>
+        <c:axId val="-2112586192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101236176"/>
+        <c:crossAx val="-2112589456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6589,7 +6602,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6831,7 +6844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -7068,4 +7081,741 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.193</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.09</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.73</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.03</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.04</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.11</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A28:A37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>